--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.7821090902013</v>
+        <v>3.926606666666667</v>
       </c>
       <c r="H2">
-        <v>1.7821090902013</v>
+        <v>11.77982</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>441.730738205148</v>
+        <v>442.844055</v>
       </c>
       <c r="N2">
-        <v>441.730738205148</v>
+        <v>885.6881100000001</v>
       </c>
       <c r="O2">
-        <v>0.6021619549662824</v>
+        <v>0.5956080271087346</v>
       </c>
       <c r="P2">
-        <v>0.6021619549662824</v>
+        <v>0.496306158069548</v>
       </c>
       <c r="Q2">
-        <v>787.2123639767249</v>
+        <v>1738.8744186567</v>
       </c>
       <c r="R2">
-        <v>787.2123639767249</v>
+        <v>10433.2465119402</v>
       </c>
       <c r="S2">
-        <v>0.6021619549662824</v>
+        <v>0.3951475730245672</v>
       </c>
       <c r="T2">
-        <v>0.6021619549662824</v>
+        <v>0.3292671772580499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.7821090902013</v>
+        <v>3.926606666666667</v>
       </c>
       <c r="H3">
-        <v>1.7821090902013</v>
+        <v>11.77982</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.31137811559942</v>
+        <v>2.568168333333333</v>
       </c>
       <c r="N3">
-        <v>2.31137811559942</v>
+        <v>7.704505</v>
       </c>
       <c r="O3">
-        <v>0.003150842457581568</v>
+        <v>0.003454086505236688</v>
       </c>
       <c r="P3">
-        <v>0.003150842457581568</v>
+        <v>0.004317313547742695</v>
       </c>
       <c r="Q3">
-        <v>4.119127950702078</v>
+        <v>10.08418689878889</v>
       </c>
       <c r="R3">
-        <v>4.119127950702078</v>
+        <v>90.75768208910002</v>
       </c>
       <c r="S3">
-        <v>0.003150842457581568</v>
+        <v>0.002291563977380738</v>
       </c>
       <c r="T3">
-        <v>0.003150842457581568</v>
+        <v>0.002864259534341644</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.7821090902013</v>
+        <v>3.926606666666667</v>
       </c>
       <c r="H4">
-        <v>1.7821090902013</v>
+        <v>11.77982</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.66156959406423</v>
+        <v>3.891101666666666</v>
       </c>
       <c r="N4">
-        <v>3.66156959406423</v>
+        <v>11.673305</v>
       </c>
       <c r="O4">
-        <v>0.004991407014068459</v>
+        <v>0.005233380375768717</v>
       </c>
       <c r="P4">
-        <v>0.004991407014068459</v>
+        <v>0.006541279137781407</v>
       </c>
       <c r="Q4">
-        <v>6.525316457986547</v>
+        <v>15.27882574501111</v>
       </c>
       <c r="R4">
-        <v>6.525316457986547</v>
+        <v>137.5094317051</v>
       </c>
       <c r="S4">
-        <v>0.004991407014068459</v>
+        <v>0.003472010886485044</v>
       </c>
       <c r="T4">
-        <v>0.004991407014068459</v>
+        <v>0.004339717495611722</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.7821090902013</v>
+        <v>3.926606666666667</v>
       </c>
       <c r="H5">
-        <v>1.7821090902013</v>
+        <v>11.77982</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.65922479786539</v>
+        <v>6.062445333333333</v>
       </c>
       <c r="N5">
-        <v>5.65922479786539</v>
+        <v>18.187336</v>
       </c>
       <c r="O5">
-        <v>0.007714586224456166</v>
+        <v>0.008153753141026635</v>
       </c>
       <c r="P5">
-        <v>0.007714586224456166</v>
+        <v>0.01019149602864148</v>
       </c>
       <c r="Q5">
-        <v>10.08535595576853</v>
+        <v>23.80483826216889</v>
       </c>
       <c r="R5">
-        <v>10.08535595576853</v>
+        <v>214.24354435952</v>
       </c>
       <c r="S5">
-        <v>0.007714586224456166</v>
+        <v>0.005409490164795776</v>
       </c>
       <c r="T5">
-        <v>0.007714586224456166</v>
+        <v>0.006761401354438089</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.7821090902013</v>
+        <v>3.926606666666667</v>
       </c>
       <c r="H6">
-        <v>1.7821090902013</v>
+        <v>11.77982</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>277.090667423713</v>
+        <v>285.0064136666667</v>
       </c>
       <c r="N6">
-        <v>277.090667423713</v>
+        <v>855.019241</v>
       </c>
       <c r="O6">
-        <v>0.3777266184299023</v>
+        <v>0.3833225394825256</v>
       </c>
       <c r="P6">
-        <v>0.3777266184299023</v>
+        <v>0.4791204824644771</v>
       </c>
       <c r="Q6">
-        <v>493.8057972257441</v>
+        <v>1119.108083946291</v>
       </c>
       <c r="R6">
-        <v>493.8057972257441</v>
+        <v>10071.97275551662</v>
       </c>
       <c r="S6">
-        <v>0.3777266184299023</v>
+        <v>0.2543098216748539</v>
       </c>
       <c r="T6">
-        <v>0.3777266184299023</v>
+        <v>0.3178655881305556</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,433 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.7821090902013</v>
+        <v>3.926606666666667</v>
       </c>
       <c r="H7">
-        <v>1.7821090902013</v>
+        <v>11.77982</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.6634356070430004</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.12105998547929</v>
+        <v>3.143744</v>
       </c>
       <c r="N7">
-        <v>3.12105998547929</v>
+        <v>6.287488</v>
       </c>
       <c r="O7">
-        <v>0.004254590907709088</v>
+        <v>0.004228213386707702</v>
       </c>
       <c r="P7">
-        <v>0.004254590907709088</v>
+        <v>0.003523270751809444</v>
       </c>
       <c r="Q7">
-        <v>5.56206937118618</v>
+        <v>12.34424614869333</v>
       </c>
       <c r="R7">
-        <v>5.56206937118618</v>
+        <v>74.06547689216001</v>
       </c>
       <c r="S7">
-        <v>0.004254590907709088</v>
+        <v>0.002805147314917765</v>
       </c>
       <c r="T7">
-        <v>0.004254590907709088</v>
+        <v>0.002337463270003547</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.991988333333333</v>
+      </c>
+      <c r="H8">
+        <v>5.975965</v>
+      </c>
+      <c r="I8">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="J8">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>442.844055</v>
+      </c>
+      <c r="N8">
+        <v>885.6881100000001</v>
+      </c>
+      <c r="O8">
+        <v>0.5956080271087346</v>
+      </c>
+      <c r="P8">
+        <v>0.496306158069548</v>
+      </c>
+      <c r="Q8">
+        <v>882.1401910460251</v>
+      </c>
+      <c r="R8">
+        <v>5292.84114627615</v>
+      </c>
+      <c r="S8">
+        <v>0.2004604540841675</v>
+      </c>
+      <c r="T8">
+        <v>0.1670389808114981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.991988333333333</v>
+      </c>
+      <c r="H9">
+        <v>5.975965</v>
+      </c>
+      <c r="I9">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="J9">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.568168333333333</v>
+      </c>
+      <c r="N9">
+        <v>7.704505</v>
+      </c>
+      <c r="O9">
+        <v>0.003454086505236688</v>
+      </c>
+      <c r="P9">
+        <v>0.004317313547742695</v>
+      </c>
+      <c r="Q9">
+        <v>5.115761358036111</v>
+      </c>
+      <c r="R9">
+        <v>46.041852222325</v>
+      </c>
+      <c r="S9">
+        <v>0.00116252252785595</v>
+      </c>
+      <c r="T9">
+        <v>0.001453054013401051</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.991988333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.975965</v>
+      </c>
+      <c r="I10">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="J10">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.891101666666666</v>
+      </c>
+      <c r="N10">
+        <v>11.673305</v>
+      </c>
+      <c r="O10">
+        <v>0.005233380375768717</v>
+      </c>
+      <c r="P10">
+        <v>0.006541279137781407</v>
+      </c>
+      <c r="Q10">
+        <v>7.751029123813888</v>
+      </c>
+      <c r="R10">
+        <v>69.75926211432498</v>
+      </c>
+      <c r="S10">
+        <v>0.001761369489283673</v>
+      </c>
+      <c r="T10">
+        <v>0.002201561642169685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.991988333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.975965</v>
+      </c>
+      <c r="I11">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="J11">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.062445333333333</v>
+      </c>
+      <c r="N11">
+        <v>18.187336</v>
+      </c>
+      <c r="O11">
+        <v>0.008153753141026635</v>
+      </c>
+      <c r="P11">
+        <v>0.01019149602864148</v>
+      </c>
+      <c r="Q11">
+        <v>12.07632037547111</v>
+      </c>
+      <c r="R11">
+        <v>108.68688337924</v>
+      </c>
+      <c r="S11">
+        <v>0.002744262976230858</v>
+      </c>
+      <c r="T11">
+        <v>0.003430094674203393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.991988333333333</v>
+      </c>
+      <c r="H12">
+        <v>5.975965</v>
+      </c>
+      <c r="I12">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="J12">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>285.0064136666667</v>
+      </c>
+      <c r="N12">
+        <v>855.019241</v>
+      </c>
+      <c r="O12">
+        <v>0.3833225394825256</v>
+      </c>
+      <c r="P12">
+        <v>0.4791204824644771</v>
+      </c>
+      <c r="Q12">
+        <v>567.7294509491738</v>
+      </c>
+      <c r="R12">
+        <v>5109.565058542565</v>
+      </c>
+      <c r="S12">
+        <v>0.1290127178076718</v>
+      </c>
+      <c r="T12">
+        <v>0.1612548943339215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.991988333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.975965</v>
+      </c>
+      <c r="I13">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="J13">
+        <v>0.3365643929569996</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.143744</v>
+      </c>
+      <c r="N13">
+        <v>6.287488</v>
+      </c>
+      <c r="O13">
+        <v>0.004228213386707702</v>
+      </c>
+      <c r="P13">
+        <v>0.003523270751809444</v>
+      </c>
+      <c r="Q13">
+        <v>6.262301370986666</v>
+      </c>
+      <c r="R13">
+        <v>37.57380822592</v>
+      </c>
+      <c r="S13">
+        <v>0.001423066071789937</v>
+      </c>
+      <c r="T13">
+        <v>0.001185807481805897</v>
       </c>
     </row>
   </sheetData>
